--- a/file_1.xlsx
+++ b/file_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haodawei/Library/Mobile Documents/com~apple~CloudDocs/PyCharm Projects/Selenium-IKEA-PIA-Facts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwhao.DFIIKTW\OneDrive - The Dairy Farm Company Ltd\HCS VM Stuff\Selenium-PIA-Facts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82181033-6FC1-C547-A27A-C20B4D363B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="113_{A2EFF065-EB85-48E4-BD4E-694BB83ADD40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{61855702-30D3-47E8-A0A8-05622FF07328}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="680" windowWidth="27980" windowHeight="17000" xr2:uid="{77C82FDB-93E5-B243-B7FB-D4B5456EEEAA}"/>
+    <workbookView xWindow="960" yWindow="684" windowWidth="27984" windowHeight="17004" xr2:uid="{77C82FDB-93E5-B243-B7FB-D4B5456EEEAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,44 +20,862 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
   <si>
     <t>art</t>
   </si>
   <si>
-    <t>00217976</t>
-  </si>
-  <si>
-    <t>10316297</t>
+    <t>70317072</t>
+  </si>
+  <si>
+    <t>20291418</t>
+  </si>
+  <si>
+    <t>40317064</t>
+  </si>
+  <si>
+    <t>90515071</t>
+  </si>
+  <si>
+    <t>10487166</t>
+  </si>
+  <si>
+    <t>00471613</t>
+  </si>
+  <si>
+    <t>20244832</t>
+  </si>
+  <si>
+    <t>40522050</t>
+  </si>
+  <si>
+    <t>40242889</t>
+  </si>
+  <si>
+    <t>10553608</t>
+  </si>
+  <si>
+    <t>00242891</t>
+  </si>
+  <si>
+    <t>30364372</t>
+  </si>
+  <si>
+    <t>30394109</t>
+  </si>
+  <si>
+    <t>60342576</t>
+  </si>
+  <si>
+    <t>70567297</t>
+  </si>
+  <si>
+    <t>30228756</t>
+  </si>
+  <si>
+    <t>50421215</t>
+  </si>
+  <si>
+    <t>30583794</t>
+  </si>
+  <si>
+    <t>70579158</t>
+  </si>
+  <si>
+    <t>80493833</t>
+  </si>
+  <si>
+    <t>40471611</t>
+  </si>
+  <si>
+    <t>50503584</t>
+  </si>
+  <si>
+    <t>50224045</t>
+  </si>
+  <si>
+    <t>90527093</t>
+  </si>
+  <si>
+    <t>50567726</t>
+  </si>
+  <si>
+    <t>60480761</t>
+  </si>
+  <si>
+    <t>10567728</t>
+  </si>
+  <si>
+    <t>90567734</t>
+  </si>
+  <si>
+    <t>00567724</t>
+  </si>
+  <si>
+    <t>10567766</t>
+  </si>
+  <si>
+    <t>80480760</t>
+  </si>
+  <si>
+    <t>10567733</t>
+  </si>
+  <si>
+    <t>70567749</t>
+  </si>
+  <si>
+    <t>50512625</t>
+  </si>
+  <si>
+    <t>80512619</t>
+  </si>
+  <si>
+    <t>30319978</t>
+  </si>
+  <si>
+    <t>30339226</t>
+  </si>
+  <si>
+    <t>80583697</t>
+  </si>
+  <si>
+    <t>70579163</t>
+  </si>
+  <si>
+    <t>80578969</t>
+  </si>
+  <si>
+    <t>00578973</t>
+  </si>
+  <si>
+    <t>30578981</t>
+  </si>
+  <si>
+    <t>70578979</t>
+  </si>
+  <si>
+    <t>40185474</t>
+  </si>
+  <si>
+    <t>20552670</t>
+  </si>
+  <si>
+    <t>10485638</t>
+  </si>
+  <si>
+    <t>10554523</t>
+  </si>
+  <si>
+    <t>00563523</t>
+  </si>
+  <si>
+    <t>10594492</t>
+  </si>
+  <si>
+    <t>50594466</t>
+  </si>
+  <si>
+    <t>40301708</t>
+  </si>
+  <si>
+    <t>60299219</t>
+  </si>
+  <si>
+    <t>90161989</t>
+  </si>
+  <si>
+    <t>90504195</t>
+  </si>
+  <si>
+    <t>80531651</t>
+  </si>
+  <si>
+    <t>50575509</t>
+  </si>
+  <si>
+    <t>90477639</t>
+  </si>
+  <si>
+    <t>90588779</t>
+  </si>
+  <si>
+    <t>00544412</t>
+  </si>
+  <si>
+    <t>70281266</t>
+  </si>
+  <si>
+    <t>70508397</t>
+  </si>
+  <si>
+    <t>90508400</t>
+  </si>
+  <si>
+    <t>30508399</t>
+  </si>
+  <si>
+    <t>70372836</t>
+  </si>
+  <si>
+    <t>60574967</t>
+  </si>
+  <si>
+    <t>70575037</t>
+  </si>
+  <si>
+    <t>00484941</t>
+  </si>
+  <si>
+    <t>00483569</t>
+  </si>
+  <si>
+    <t>50578065</t>
+  </si>
+  <si>
+    <t>00578063</t>
+  </si>
+  <si>
+    <t>30485227</t>
+  </si>
+  <si>
+    <t>40432506</t>
+  </si>
+  <si>
+    <t>40482030</t>
+  </si>
+  <si>
+    <t>70432500</t>
+  </si>
+  <si>
+    <t>90516773</t>
+  </si>
+  <si>
+    <t>50511683</t>
+  </si>
+  <si>
+    <t>30528364</t>
+  </si>
+  <si>
+    <t>80562063</t>
+  </si>
+  <si>
+    <t>50544424</t>
+  </si>
+  <si>
+    <t>10467757</t>
+  </si>
+  <si>
+    <t>50588776</t>
+  </si>
+  <si>
+    <t>10517677</t>
+  </si>
+  <si>
+    <t>40570362</t>
+  </si>
+  <si>
+    <t>40544405</t>
+  </si>
+  <si>
+    <t>80484876</t>
+  </si>
+  <si>
+    <t>90484885</t>
+  </si>
+  <si>
+    <t>40580059</t>
+  </si>
+  <si>
+    <t>60487913</t>
+  </si>
+  <si>
+    <t>50487918</t>
+  </si>
+  <si>
+    <t>10487920</t>
+  </si>
+  <si>
+    <t>00490517</t>
+  </si>
+  <si>
+    <t>60577697</t>
+  </si>
+  <si>
+    <t>20577699</t>
+  </si>
+  <si>
+    <t>20338425</t>
+  </si>
+  <si>
+    <t>80338427</t>
+  </si>
+  <si>
+    <t>70338423</t>
+  </si>
+  <si>
+    <t>00338426</t>
+  </si>
+  <si>
+    <t>60338428</t>
+  </si>
+  <si>
+    <t>50338424</t>
+  </si>
+  <si>
+    <t>10338435</t>
+  </si>
+  <si>
+    <t>40338429</t>
+  </si>
+  <si>
+    <t>40338434</t>
+  </si>
+  <si>
+    <t>70338437</t>
+  </si>
+  <si>
+    <t>00338431</t>
+  </si>
+  <si>
+    <t>90323618</t>
+  </si>
+  <si>
+    <t>70334302</t>
+  </si>
+  <si>
+    <t>90323623</t>
+  </si>
+  <si>
+    <t>40334308</t>
+  </si>
+  <si>
+    <t>70323619</t>
+  </si>
+  <si>
+    <t>80334311</t>
+  </si>
+  <si>
+    <t>30323616</t>
+  </si>
+  <si>
+    <t>40334313</t>
+  </si>
+  <si>
+    <t>50323620</t>
+  </si>
+  <si>
+    <t>70334316</t>
+  </si>
+  <si>
+    <t>30323621</t>
+  </si>
+  <si>
+    <t>30334318</t>
+  </si>
+  <si>
+    <t>60316049</t>
+  </si>
+  <si>
+    <t>40316050</t>
+  </si>
+  <si>
+    <t>20318979</t>
+  </si>
+  <si>
+    <t>30569364</t>
+  </si>
+  <si>
+    <t>80347525</t>
+  </si>
+  <si>
+    <t>30347523</t>
+  </si>
+  <si>
+    <t>40347527</t>
+  </si>
+  <si>
+    <t>60347526</t>
+  </si>
+  <si>
+    <t>10347524</t>
+  </si>
+  <si>
+    <t>20347528</t>
+  </si>
+  <si>
+    <t>00347529</t>
+  </si>
+  <si>
+    <t>20347533</t>
+  </si>
+  <si>
+    <t>80347530</t>
+  </si>
+  <si>
+    <t>70347535</t>
+  </si>
+  <si>
+    <t>10323434</t>
+  </si>
+  <si>
+    <t>60336434</t>
+  </si>
+  <si>
+    <t>30336435</t>
+  </si>
+  <si>
+    <t>90342481</t>
+  </si>
+  <si>
+    <t>70342482</t>
+  </si>
+  <si>
+    <t>50342483</t>
+  </si>
+  <si>
+    <t>90534593</t>
+  </si>
+  <si>
+    <t>70553648</t>
+  </si>
+  <si>
+    <t>10553651</t>
+  </si>
+  <si>
+    <t>20553660</t>
+  </si>
+  <si>
+    <t>20553537</t>
+  </si>
+  <si>
+    <t>00357028</t>
+  </si>
+  <si>
+    <t>60357030</t>
+  </si>
+  <si>
+    <t>80357029</t>
+  </si>
+  <si>
+    <t>70553686</t>
+  </si>
+  <si>
+    <t>20553679</t>
+  </si>
+  <si>
+    <t>40553683</t>
+  </si>
+  <si>
+    <t>90405789</t>
+  </si>
+  <si>
+    <t>70405790</t>
+  </si>
+  <si>
+    <t>50405791</t>
+  </si>
+  <si>
+    <t>20596532</t>
+  </si>
+  <si>
+    <t>20534474</t>
+  </si>
+  <si>
+    <t>30534478</t>
+  </si>
+  <si>
+    <t>10236154</t>
+  </si>
+  <si>
+    <t>30348928</t>
+  </si>
+  <si>
+    <t>30348933</t>
+  </si>
+  <si>
+    <t>40507479</t>
+  </si>
+  <si>
+    <t>10507485</t>
+  </si>
+  <si>
+    <t>30507494</t>
+  </si>
+  <si>
+    <t>70450344</t>
+  </si>
+  <si>
+    <t>40450345</t>
+  </si>
+  <si>
+    <t>40548074</t>
+  </si>
+  <si>
+    <t>00437228</t>
+  </si>
+  <si>
+    <t>90588939</t>
+  </si>
+  <si>
+    <t>10468295</t>
+  </si>
+  <si>
+    <t>40468294</t>
+  </si>
+  <si>
+    <t>20559978</t>
+  </si>
+  <si>
+    <t>60559981</t>
+  </si>
+  <si>
+    <t>20559983</t>
+  </si>
+  <si>
+    <t>90187753</t>
+  </si>
+  <si>
+    <t>30503863</t>
+  </si>
+  <si>
+    <t>40460108</t>
+  </si>
+  <si>
+    <t>70567004</t>
+  </si>
+  <si>
+    <t>60339932</t>
+  </si>
+  <si>
+    <t>70339936</t>
+  </si>
+  <si>
+    <t>40339933</t>
+  </si>
+  <si>
+    <t>90339935</t>
+  </si>
+  <si>
+    <t>50339937</t>
+  </si>
+  <si>
+    <t>20339934</t>
+  </si>
+  <si>
+    <t>00295441</t>
+  </si>
+  <si>
+    <t>20295440</t>
+  </si>
+  <si>
+    <t>90519168</t>
+  </si>
+  <si>
+    <t>50519170</t>
+  </si>
+  <si>
+    <t>50503980</t>
+  </si>
+  <si>
+    <t>80417523</t>
+  </si>
+  <si>
+    <t>70420205</t>
+  </si>
+  <si>
+    <t>30420207</t>
+  </si>
+  <si>
+    <t>50525406</t>
+  </si>
+  <si>
+    <t>80520501</t>
+  </si>
+  <si>
+    <t>80473694</t>
+  </si>
+  <si>
+    <t>70514096</t>
+  </si>
+  <si>
+    <t>30514098</t>
+  </si>
+  <si>
+    <t>50171773</t>
+  </si>
+  <si>
+    <t>20312251</t>
+  </si>
+  <si>
+    <t>50315314</t>
+  </si>
+  <si>
+    <t>80422845</t>
+  </si>
+  <si>
+    <t>70422855</t>
+  </si>
+  <si>
+    <t>90556679</t>
+  </si>
+  <si>
+    <t>90511209</t>
+  </si>
+  <si>
+    <t>30511212</t>
+  </si>
+  <si>
+    <t>90255898</t>
+  </si>
+  <si>
+    <t>10255901</t>
+  </si>
+  <si>
+    <t>00511218</t>
+  </si>
+  <si>
+    <t>30363645</t>
+  </si>
+  <si>
+    <t>50295207</t>
+  </si>
+  <si>
+    <t>80431152</t>
+  </si>
+  <si>
+    <t>50203255</t>
+  </si>
+  <si>
+    <t>80169250</t>
+  </si>
+  <si>
+    <t>80196102</t>
+  </si>
+  <si>
+    <t>00240463</t>
+  </si>
+  <si>
+    <t>60556690</t>
+  </si>
+  <si>
+    <t>70563727</t>
+  </si>
+  <si>
+    <t>60573227</t>
+  </si>
+  <si>
+    <t>50568085</t>
+  </si>
+  <si>
+    <t>80564203</t>
+  </si>
+  <si>
+    <t>60563742</t>
+  </si>
+  <si>
+    <t>80563736</t>
+  </si>
+  <si>
+    <t>00573230</t>
+  </si>
+  <si>
+    <t>30556696</t>
+  </si>
+  <si>
+    <t>50568090</t>
+  </si>
+  <si>
+    <t>20563739</t>
+  </si>
+  <si>
+    <t>70425627</t>
+  </si>
+  <si>
+    <t>70147758</t>
+  </si>
+  <si>
+    <t>00528389</t>
+  </si>
+  <si>
+    <t>10307542</t>
+  </si>
+  <si>
+    <t>20243597</t>
+  </si>
+  <si>
+    <t>40435406</t>
+  </si>
+  <si>
+    <t>60514365</t>
+  </si>
+  <si>
+    <t>30569854</t>
+  </si>
+  <si>
+    <t>80527079</t>
+  </si>
+  <si>
+    <t>60527080</t>
+  </si>
+  <si>
+    <t>50572964</t>
+  </si>
+  <si>
+    <t>80567616</t>
+  </si>
+  <si>
+    <t>30567647</t>
+  </si>
+  <si>
+    <t>40527095</t>
+  </si>
+  <si>
+    <t>90482443</t>
+  </si>
+  <si>
+    <t>50567651</t>
+  </si>
+  <si>
+    <t>90491027</t>
+  </si>
+  <si>
+    <t>90567649</t>
+  </si>
+  <si>
+    <t>40567618</t>
+  </si>
+  <si>
+    <t>30567628</t>
+  </si>
+  <si>
+    <t>30567614</t>
+  </si>
+  <si>
+    <t>20527096</t>
+  </si>
+  <si>
+    <t>60533552</t>
+  </si>
+  <si>
+    <t>70567631</t>
+  </si>
+  <si>
+    <t>00567620</t>
+  </si>
+  <si>
+    <t>60567622</t>
+  </si>
+  <si>
+    <t>00575639</t>
+  </si>
+  <si>
+    <t>50482440</t>
+  </si>
+  <si>
+    <t>20567638</t>
+  </si>
+  <si>
+    <t>10483093</t>
+  </si>
+  <si>
+    <t>40567642</t>
+  </si>
+  <si>
+    <t>90501432</t>
+  </si>
+  <si>
+    <t>90483094</t>
+  </si>
+  <si>
+    <t>60567636</t>
+  </si>
+  <si>
+    <t>40567722</t>
+  </si>
+  <si>
+    <t>10561825</t>
+  </si>
+  <si>
+    <t>30413240</t>
+  </si>
+  <si>
+    <t>10493431</t>
+  </si>
+  <si>
+    <t>70540104</t>
+  </si>
+  <si>
+    <t>10467267</t>
+  </si>
+  <si>
+    <t>90493521</t>
+  </si>
+  <si>
+    <t>30508945</t>
+  </si>
+  <si>
+    <t>40508959</t>
+  </si>
+  <si>
+    <t>70508972</t>
+  </si>
+  <si>
+    <t>80528861</t>
+  </si>
+  <si>
+    <t>20528859</t>
+  </si>
+  <si>
+    <t>00528860</t>
+  </si>
+  <si>
+    <t>60528857</t>
+  </si>
+  <si>
+    <t>30426638</t>
+  </si>
+  <si>
+    <t>10426639</t>
+  </si>
+  <si>
+    <t>50521390</t>
+  </si>
+  <si>
+    <t>90301961</t>
+  </si>
+  <si>
+    <t>80518193</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Noto IKEA Traditional Chinese"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,10 +900,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,31 +1237,1713 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805AC99D-519F-E042-AE3D-E231033A84A4}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A002B3A071A2CD40B0F76A51D7145116" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7879a08427a2361f0217b5e9f37f4c7a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="4a32e8da-c96d-4ebd-9b87-90f10e543515" xmlns:ns4="ddab2b65-d8bd-47a1-b16c-22e6d9a6d03c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69904184cccb1cc404a5fe9d1ac7488e" ns1:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="4a32e8da-c96d-4ebd-9b87-90f10e543515"/>
+    <xsd:import namespace="ddab2b65-d8bd-47a1-b16c-22e6d9a6d03c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="19" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4a32e8da-c96d-4ebd-9b87-90f10e543515" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="22" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="24" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ddab2b65-d8bd-47a1-b16c-22e6d9a6d03c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="17" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="4a32e8da-c96d-4ebd-9b87-90f10e543515" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{598980AB-49EE-4A27-A49B-4E351FAE1D79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4a32e8da-c96d-4ebd-9b87-90f10e543515"/>
+    <ds:schemaRef ds:uri="ddab2b65-d8bd-47a1-b16c-22e6d9a6d03c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74252BE2-6FAB-4E7A-BA47-E68EA4F1CEE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0543C375-F5E3-46A5-8068-ECC01F4B852C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ddab2b65-d8bd-47a1-b16c-22e6d9a6d03c"/>
+    <ds:schemaRef ds:uri="4a32e8da-c96d-4ebd-9b87-90f10e543515"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>